--- a/data/Spread_CorrMean_StD.xlsx
+++ b/data/Spread_CorrMean_StD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Mean</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>StD</t>
+  </si>
+  <si>
+    <t>MAX:</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>MIN:</t>
   </si>
 </sst>
 </file>
@@ -366,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:S20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,6 +427,9 @@
       <c r="I3">
         <v>8</v>
       </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -474,6 +486,10 @@
       <c r="I4">
         <v>0.942506286113869</v>
       </c>
+      <c r="J4">
+        <f>AVERAGE(B4:I4)</f>
+        <v>0.95138032261523586</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
@@ -530,6 +546,10 @@
       <c r="I5">
         <v>0.93155617613598596</v>
       </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J20" si="0">AVERAGE(B5:I5)</f>
+        <v>0.92244652548067918</v>
+      </c>
       <c r="K5">
         <v>2</v>
       </c>
@@ -586,6 +606,10 @@
       <c r="I6">
         <v>0.97886458653112596</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.97991048982620099</v>
+      </c>
       <c r="K6">
         <v>3</v>
       </c>
@@ -642,6 +666,10 @@
       <c r="I7">
         <v>0.97252735999836204</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.98016243627660182</v>
+      </c>
       <c r="K7">
         <v>4</v>
       </c>
@@ -698,6 +726,10 @@
       <c r="I8">
         <v>0.95298842253944505</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.95715379496199282</v>
+      </c>
       <c r="K8">
         <v>5</v>
       </c>
@@ -754,6 +786,10 @@
       <c r="I9">
         <v>0.98231265613538798</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.97560280239907349</v>
+      </c>
       <c r="K9">
         <v>6</v>
       </c>
@@ -810,6 +846,10 @@
       <c r="I10">
         <v>0.961594463561946</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.96802692827638559</v>
+      </c>
       <c r="K10">
         <v>7</v>
       </c>
@@ -866,6 +906,10 @@
       <c r="I11">
         <v>0.96178008529559</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.97181900303856128</v>
+      </c>
       <c r="K11">
         <v>8</v>
       </c>
@@ -922,6 +966,10 @@
       <c r="I12">
         <v>0.96999083807164299</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.96983108726730127</v>
+      </c>
       <c r="K12">
         <v>9</v>
       </c>
@@ -978,6 +1026,10 @@
       <c r="I13">
         <v>0.97047422454274701</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.96941548186568227</v>
+      </c>
       <c r="K13">
         <v>10</v>
       </c>
@@ -1034,6 +1086,10 @@
       <c r="I14">
         <v>0.98495533973484894</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.98142553744119354</v>
+      </c>
       <c r="K14">
         <v>11</v>
       </c>
@@ -1090,6 +1146,10 @@
       <c r="I15">
         <v>0.91157041861427002</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.94835901970559422</v>
+      </c>
       <c r="K15">
         <v>12</v>
       </c>
@@ -1146,6 +1206,10 @@
       <c r="I16">
         <v>0.98966636159639998</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.98482330570604193</v>
+      </c>
       <c r="K16">
         <v>13</v>
       </c>
@@ -1202,6 +1266,10 @@
       <c r="I17">
         <v>0.88179026056136101</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.91765268195543381</v>
+      </c>
       <c r="K17">
         <v>14</v>
       </c>
@@ -1258,6 +1326,10 @@
       <c r="I18">
         <v>0.95683021657201806</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.97523206737997803</v>
+      </c>
       <c r="K18">
         <v>15</v>
       </c>
@@ -1314,6 +1386,10 @@
       <c r="I19">
         <v>0.98254801529604396</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.97903929222693731</v>
+      </c>
       <c r="K19">
         <v>16</v>
       </c>
@@ -1370,6 +1446,10 @@
       <c r="I20">
         <v>0.92867886917863995</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.93072808080228253</v>
+      </c>
       <c r="K20">
         <v>17</v>
       </c>
@@ -1396,6 +1476,88 @@
       </c>
       <c r="S20">
         <v>0.17718830170757299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f>MAX(B4:B20)</f>
+        <v>0.99553029642680302</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:J21" si="1">MAX(C4:C20)</f>
+        <v>0.98247393337582201</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.99162748626487895</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.99054735889029699</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.99027854182924602</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.98670334132700499</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0.98864938816991499</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.98966636159639998</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.98482330570604193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <f>MIN(B4:B20)</f>
+        <v>0.89775423240940699</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:J22" si="2">MIN(C4:C20)</f>
+        <v>0.88996534125198701</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.92324289840544205</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0.91315033122544398</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.903278899012529</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.92970754894448304</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.841776281151142</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0.88179026056136101</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.91765268195543381</v>
       </c>
     </row>
   </sheetData>
